--- a/实施周数据-张磊组/11月/48周/实施周数据-张磊组-李星.xlsx
+++ b/实施周数据-张磊组/11月/48周/实施周数据-张磊组-李星.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017第X周" sheetId="4" r:id="rId1"/>
@@ -367,7 +367,7 @@
     <t>水舞馔杭州店上线</t>
   </si>
   <si>
-    <t>值班并更换水舞馔打印机</t>
+    <t>更换水舞馔打印机</t>
   </si>
   <si>
     <t>走街串巷打浦桥店驻店</t>
@@ -378,12 +378,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -478,9 +478,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -497,16 +521,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,74 +549,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,9 +571,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,16 +633,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,7 +688,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,55 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +796,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,31 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,19 +844,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,35 +1047,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,6 +1071,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1102,6 +1102,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,186 +1144,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1335,7 +1335,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1370,7 +1370,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1409,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2044,7 +2044,7 @@
   <sheetPr/>
   <dimension ref="A1:Q1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -7200,8 +7200,8 @@
   <sheetPr/>
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelCol="2"/>
